--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_1_28.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_1_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2401053.14127239</v>
+        <v>2399165.559755987</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9852075.648704167</v>
+        <v>9852075.648704169</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,7 +671,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>390.7529822392027</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>26.2407988866518</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -716,13 +716,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>82.92375604299538</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>135.0393428231425</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>383.1210607601525</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>208.7351135671409</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1054,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1105,22 +1105,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>67.4814843750343</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>190.271393580297</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>370.3047561150635</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>126.7477612906601</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>160.8978598734776</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,25 +1333,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>14.48345164522512</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896927</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
@@ -1421,7 +1421,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385028</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1579,16 +1579,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>206.8064269214866</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>237.6821551249387</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1768,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>115.5269768002174</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>33.35146980185908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896927</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>162.9835080414694</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>62.63869417193551</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2090,10 +2090,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>34.30454338096106</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>17.29855725687408</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,19 +2476,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>35.5845800343384</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -2533,16 +2533,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>76.18232971724149</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>116.3130092334109</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2764,19 +2764,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>58.19095390327278</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700708</v>
+        <v>5.32270212663228</v>
       </c>
       <c r="D31" t="n">
         <v>93.4122163896553</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801211</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437419</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>93.71057173897907</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571492</v>
+        <v>55.2159888357149</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523573</v>
+        <v>54.76109577523572</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550462</v>
@@ -3004,7 +3004,7 @@
         <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>14.03583621539769</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
         <v>196.9343866952709</v>
@@ -3032,7 +3032,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898586</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
         <v>98.36167833373695</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463113</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3281,7 +3281,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I35" t="n">
         <v>81.77913505274077</v>
@@ -3323,7 +3323,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
         <v>98.36167833373695</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G40" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3800,7 +3800,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1282.700798147047</v>
+        <v>936.2491605982761</v>
       </c>
       <c r="C2" t="n">
-        <v>913.7382812066351</v>
+        <v>936.2491605982761</v>
       </c>
       <c r="D2" t="n">
-        <v>555.4725825998845</v>
+        <v>936.2491605982761</v>
       </c>
       <c r="E2" t="n">
-        <v>555.4725825998845</v>
+        <v>936.2491605982761</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>929.3036598490727</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4325,55 +4325,55 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
-        <v>2670.643233556958</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2494.465745871128</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2275.831078843191</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U2" t="n">
-        <v>2022.069293481283</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V2" t="n">
-        <v>2022.069293481283</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1669.300638211168</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1669.300638211168</v>
+        <v>936.2491605982761</v>
       </c>
       <c r="Y2" t="n">
-        <v>1669.300638211168</v>
+        <v>936.2491605982761</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4413,7 +4413,7 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
         <v>1194.968834417902</v>
@@ -4428,22 +4428,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4452,7 +4452,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>348.0202652891861</v>
+        <v>137.7043515607638</v>
       </c>
       <c r="C4" t="n">
-        <v>348.0202652891861</v>
+        <v>137.7043515607638</v>
       </c>
       <c r="D4" t="n">
-        <v>348.0202652891861</v>
+        <v>137.7043515607638</v>
       </c>
       <c r="E4" t="n">
-        <v>348.0202652891861</v>
+        <v>137.7043515607638</v>
       </c>
       <c r="F4" t="n">
-        <v>348.0202652891861</v>
+        <v>137.7043515607638</v>
       </c>
       <c r="G4" t="n">
-        <v>348.0202652891861</v>
+        <v>137.7043515607638</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>484.4236418782189</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="T4" t="n">
-        <v>484.4236418782189</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="U4" t="n">
-        <v>484.4236418782189</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="V4" t="n">
-        <v>348.0202652891861</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="W4" t="n">
-        <v>348.0202652891861</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="X4" t="n">
-        <v>348.0202652891861</v>
+        <v>137.7043515607638</v>
       </c>
       <c r="Y4" t="n">
-        <v>348.0202652891861</v>
+        <v>137.7043515607638</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>597.2403795762991</v>
+        <v>1526.106027515566</v>
       </c>
       <c r="C5" t="n">
-        <v>228.2778626358874</v>
+        <v>1526.106027515566</v>
       </c>
       <c r="D5" t="n">
-        <v>228.2778626358874</v>
+        <v>1167.840328908816</v>
       </c>
       <c r="E5" t="n">
-        <v>228.2778626358874</v>
+        <v>782.0520763105712</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2431.276852490997</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2100.213965147427</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W5" t="n">
-        <v>1747.445309877312</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="X5" t="n">
-        <v>1373.979551616233</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="Y5" t="n">
-        <v>983.8402196404209</v>
+        <v>1526.106027515566</v>
       </c>
     </row>
     <row r="6">
@@ -4620,40 +4620,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>370.7922583306645</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610022</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V7" t="n">
-        <v>438.9553738610022</v>
+        <v>246.1363086691493</v>
       </c>
       <c r="W7" t="n">
-        <v>370.7922583306645</v>
+        <v>246.1363086691493</v>
       </c>
       <c r="X7" t="n">
-        <v>370.7922583306645</v>
+        <v>246.1363086691493</v>
       </c>
       <c r="Y7" t="n">
-        <v>370.7922583306645</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2323.103882821189</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="C8" t="n">
-        <v>1954.141365880777</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D8" t="n">
-        <v>1595.875667274027</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224079</v>
@@ -4817,7 +4817,7 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
         <v>2544.691559791253</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018223</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018223</v>
+        <v>1894.539591564835</v>
       </c>
       <c r="X8" t="n">
-        <v>2697.149091018223</v>
+        <v>1766.511549857098</v>
       </c>
       <c r="Y8" t="n">
-        <v>2697.149091018223</v>
+        <v>1376.372217881286</v>
       </c>
     </row>
     <row r="9">
@@ -4872,34 +4872,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598707</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>565.6058934251438</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="C10" t="n">
-        <v>565.6058934251438</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="D10" t="n">
-        <v>415.489254012808</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="E10" t="n">
-        <v>415.489254012808</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="F10" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>550.5654064942406</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064343</v>
+        <v>550.5654064942406</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064343</v>
+        <v>323.2572191628424</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064343</v>
+        <v>323.2572191628424</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064343</v>
+        <v>68.5727309569555</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036447</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155881</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
@@ -5051,40 +5051,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5121,25 +5121,25 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701562</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L12" t="n">
-        <v>796.3635653766204</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M12" t="n">
-        <v>1406.737288300438</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>1736.59991596447</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183167</v>
+        <v>2302.237516093322</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2507.259996875531</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5197,10 +5197,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
         <v>507.4972331799365</v>
@@ -5227,13 +5227,13 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U13" t="n">
-        <v>1090.100879744681</v>
+        <v>786.0822064765189</v>
       </c>
       <c r="V13" t="n">
-        <v>835.4163915387938</v>
+        <v>786.0822064765189</v>
       </c>
       <c r="W13" t="n">
         <v>545.9992215018333</v>
@@ -5276,13 +5276,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5358,25 +5358,25 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277034</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L15" t="n">
-        <v>901.6749225845922</v>
+        <v>943.0172707642137</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.043068977054</v>
+        <v>1711.385417156675</v>
       </c>
       <c r="N15" t="n">
-        <v>1999.905696641086</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O15" t="n">
-        <v>2279.445761859783</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P15" t="n">
-        <v>2484.468242641993</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,10 +5410,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201014</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201014</v>
       </c>
       <c r="D16" t="n">
         <v>97.21709146028587</v>
@@ -5443,7 +5443,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247862</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>675.0071030383446</v>
+        <v>986.0022165609663</v>
       </c>
       <c r="V16" t="n">
-        <v>420.3226148324576</v>
+        <v>731.3177283550795</v>
       </c>
       <c r="W16" t="n">
-        <v>130.905444795497</v>
+        <v>441.9005583181188</v>
       </c>
       <c r="X16" t="n">
-        <v>130.905444795497</v>
+        <v>213.9110074201014</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201014</v>
       </c>
     </row>
     <row r="17">
@@ -5492,19 +5492,19 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5513,46 +5513,46 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5592,25 +5592,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147082</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M18" t="n">
-        <v>1689.561836756086</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N18" t="n">
-        <v>2019.424464420119</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>2298.964529638816</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2503.987010421026</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>566.6879222525852</v>
+        <v>310.6051391271019</v>
       </c>
       <c r="C19" t="n">
-        <v>397.7517393246783</v>
+        <v>310.6051391271019</v>
       </c>
       <c r="D19" t="n">
-        <v>247.6350999123426</v>
+        <v>160.4884997147662</v>
       </c>
       <c r="E19" t="n">
-        <v>247.6350999123426</v>
+        <v>160.4884997147662</v>
       </c>
       <c r="F19" t="n">
-        <v>247.6350999123426</v>
+        <v>160.4884997147662</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>160.4884997147662</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028587</v>
@@ -5671,16 +5671,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609664</v>
+        <v>786.0822064765189</v>
       </c>
       <c r="V19" t="n">
-        <v>731.3177283550796</v>
+        <v>531.397718270632</v>
       </c>
       <c r="W19" t="n">
-        <v>731.3177283550796</v>
+        <v>531.397718270632</v>
       </c>
       <c r="X19" t="n">
-        <v>731.3177283550796</v>
+        <v>531.397718270632</v>
       </c>
       <c r="Y19" t="n">
-        <v>731.3177283550796</v>
+        <v>310.6051391271019</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5738,7 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
@@ -5753,25 +5753,25 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014293</v>
@@ -5832,22 +5832,22 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L21" t="n">
-        <v>901.674922584592</v>
+        <v>550.2226492899333</v>
       </c>
       <c r="M21" t="n">
-        <v>1514.038914395485</v>
+        <v>857.5427825698951</v>
       </c>
       <c r="N21" t="n">
-        <v>1843.901542059518</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O21" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>561.6946978510161</v>
+        <v>226.224972996797</v>
       </c>
       <c r="C22" t="n">
-        <v>527.0436439308535</v>
+        <v>226.224972996797</v>
       </c>
       <c r="D22" t="n">
-        <v>376.9270045185177</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E22" t="n">
-        <v>376.9270045185177</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F22" t="n">
-        <v>376.9270045185177</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G22" t="n">
         <v>208.7516828383384</v>
@@ -5908,16 +5908,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T22" t="n">
-        <v>964.135741824786</v>
+        <v>964.1357418247864</v>
       </c>
       <c r="U22" t="n">
-        <v>964.135741824786</v>
+        <v>675.0071030383446</v>
       </c>
       <c r="V22" t="n">
-        <v>964.135741824786</v>
+        <v>675.0071030383444</v>
       </c>
       <c r="W22" t="n">
-        <v>964.135741824786</v>
+        <v>675.0071030383444</v>
       </c>
       <c r="X22" t="n">
-        <v>964.135741824786</v>
+        <v>447.0175521403271</v>
       </c>
       <c r="Y22" t="n">
-        <v>743.3431626812559</v>
+        <v>226.224972996797</v>
       </c>
     </row>
     <row r="23">
@@ -5981,16 +5981,16 @@
         <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514095</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -5999,16 +5999,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014293</v>
@@ -6069,25 +6069,25 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M24" t="n">
-        <v>841.863114014129</v>
+        <v>841.8631140141293</v>
       </c>
       <c r="N24" t="n">
-        <v>1346.676219880508</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O24" t="n">
-        <v>2016.139981183168</v>
+        <v>1925.814757496978</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>415.509052552801</v>
+        <v>450.0103882072914</v>
       </c>
       <c r="C25" t="n">
-        <v>415.509052552801</v>
+        <v>281.0742052793844</v>
       </c>
       <c r="D25" t="n">
-        <v>265.3924131404652</v>
+        <v>281.0742052793844</v>
       </c>
       <c r="E25" t="n">
-        <v>265.3924131404652</v>
+        <v>133.1611116969913</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>133.1611116969913</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028587</v>
@@ -6145,16 +6145,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T25" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="U25" t="n">
-        <v>1009.867621687013</v>
+        <v>898.7925182488389</v>
       </c>
       <c r="V25" t="n">
-        <v>932.9157734877789</v>
+        <v>898.7925182488389</v>
       </c>
       <c r="W25" t="n">
-        <v>643.4986034508183</v>
+        <v>898.7925182488389</v>
       </c>
       <c r="X25" t="n">
-        <v>415.509052552801</v>
+        <v>670.8029673508215</v>
       </c>
       <c r="Y25" t="n">
-        <v>415.509052552801</v>
+        <v>450.0103882072914</v>
       </c>
     </row>
     <row r="26">
@@ -6203,10 +6203,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6218,7 +6218,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6227,25 +6227,25 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6257,16 +6257,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6291,40 +6291,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L27" t="n">
-        <v>901.674922584592</v>
+        <v>929.5163332765953</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.043068977054</v>
+        <v>1236.836466556557</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>383.6411625027492</v>
+        <v>247.3337308726218</v>
       </c>
       <c r="C28" t="n">
-        <v>214.7049795748423</v>
+        <v>247.3337308726218</v>
       </c>
       <c r="D28" t="n">
-        <v>214.7049795748423</v>
+        <v>97.21709146028593</v>
       </c>
       <c r="E28" t="n">
-        <v>214.7049795748423</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="F28" t="n">
-        <v>214.7049795748423</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.210845262961</v>
+        <v>1240.217519157017</v>
       </c>
       <c r="U28" t="n">
-        <v>786.082206476519</v>
+        <v>1240.217519157017</v>
       </c>
       <c r="V28" t="n">
-        <v>786.082206476519</v>
+        <v>985.5330309511301</v>
       </c>
       <c r="W28" t="n">
-        <v>786.082206476519</v>
+        <v>696.1158609141694</v>
       </c>
       <c r="X28" t="n">
-        <v>786.082206476519</v>
+        <v>468.1263100161519</v>
       </c>
       <c r="Y28" t="n">
-        <v>565.2896273329889</v>
+        <v>247.3337308726218</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
         <v>1701.093169003441</v>
@@ -6449,64 +6449,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823782</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L30" t="n">
-        <v>1026.505047571597</v>
+        <v>901.6749225845922</v>
       </c>
       <c r="M30" t="n">
-        <v>1333.825180851558</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1833.271529962217</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>658.7225911205028</v>
+        <v>439.5324299542189</v>
       </c>
       <c r="C31" t="n">
-        <v>545.5472734739667</v>
+        <v>434.1559631596408</v>
       </c>
       <c r="D31" t="n">
-        <v>451.1914993430017</v>
+        <v>339.8001890286758</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430017</v>
+        <v>247.6479607276535</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264622</v>
+        <v>247.6479607276535</v>
       </c>
       <c r="G31" t="n">
         <v>247.6479607276535</v>
@@ -6616,7 +6616,7 @@
         <v>152.9908175569676</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>164.2510079864672</v>
@@ -6628,10 +6628,10 @@
         <v>671.4509053667509</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962051</v>
+        <v>997.6688721962055</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
         <v>1611.390407353693</v>
@@ -6640,7 +6640,7 @@
         <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
         <v>1880.811824899271</v>
@@ -6649,22 +6649,22 @@
         <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.62813016707</v>
+        <v>1568.628130167071</v>
       </c>
       <c r="U31" t="n">
-        <v>1554.450517828285</v>
+        <v>1335.260356662</v>
       </c>
       <c r="V31" t="n">
-        <v>1355.526894903768</v>
+        <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>1121.870590148179</v>
+        <v>902.6804289818937</v>
       </c>
       <c r="X31" t="n">
-        <v>949.641904531532</v>
+        <v>730.4517433652471</v>
       </c>
       <c r="Y31" t="n">
-        <v>784.6101906693717</v>
+        <v>565.4200295030878</v>
       </c>
     </row>
     <row r="32">
@@ -6677,10 +6677,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6689,7 +6689,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6698,28 +6698,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6765,31 +6765,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
-        <v>1711.385417156675</v>
+        <v>1689.561836756087</v>
       </c>
       <c r="N33" t="n">
-        <v>2041.248044820708</v>
+        <v>2019.424464420119</v>
       </c>
       <c r="O33" t="n">
         <v>2320.788110039405</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229679</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506732</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083211</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504518</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G34" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982971</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028586</v>
@@ -6859,16 +6859,16 @@
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254953</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649688</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
         <v>1688.186490350129</v>
@@ -6877,16 +6877,16 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
         <v>1489.892037025262</v>
@@ -6895,13 +6895,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6935,25 +6935,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -6971,16 +6971,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7014,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>659.3731057211721</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M36" t="n">
-        <v>1406.737288300438</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N36" t="n">
-        <v>1736.599915964471</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O36" t="n">
-        <v>2016.139981183168</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,43 +7069,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982974</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649688</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O37" t="n">
         <v>1688.186490350129</v>
@@ -7114,10 +7114,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7138,7 +7138,7 @@
         <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="38">
@@ -7154,37 +7154,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7251,28 +7251,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M39" t="n">
-        <v>1028.859951698067</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N39" t="n">
-        <v>1833.271529962218</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O39" t="n">
-        <v>2112.811595180915</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506723</v>
+        <v>478.047598850672</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504506</v>
       </c>
       <c r="G40" t="n">
         <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7394,25 +7394,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
@@ -7451,10 +7451,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7488,28 +7488,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>644.6755122555215</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>891.4406401619856</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M42" t="n">
-        <v>1198.760773441947</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N42" t="n">
-        <v>1528.62340110598</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108325</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
         <v>320.8847398504511</v>
@@ -7570,28 +7570,28 @@
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P43" t="n">
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045207</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010317</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7631,28 +7631,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7682,16 +7682,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7728,22 +7728,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>474.8900731662875</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>1088.787142923176</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1396.107276203138</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1725.969903867171</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2005.509969085868</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.810590821615</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q45" t="n">
         <v>2612.943493278838</v>
@@ -7807,10 +7807,10 @@
         <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7837,16 +7837,16 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y46" t="n">
         <v>772.2886129010316</v>
@@ -8061,10 +8061,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516226</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719079</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627882</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,28 +8769,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>306.1147370139954</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>18.7379736829126</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9006,10 +9006,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>148.135055947064</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9024,10 +9024,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>52.49733361305218</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9243,13 +9243,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>392.1113620226429</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9261,10 +9261,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>32.78140656352421</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9404,7 +9404,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504496</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9483,25 +9483,25 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>15.83804904622804</v>
       </c>
       <c r="M21" t="n">
-        <v>308.1251096272033</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9726,19 +9726,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>176.717654749845</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>188.8856946302395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9875,7 +9875,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>324.145412571163</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,19 +9951,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>272.87194702568</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>52.49733361305226</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10200,7 +10200,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>392.1113620226433</v>
+        <v>297.3877236703339</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10209,10 +10209,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10349,7 +10349,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>324.145412571163</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10425,22 +10425,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>242.9997743936052</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>22.04402060665518</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10662,28 +10662,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>444.488938686166</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>308.1251096272039</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445218</v>
@@ -10908,13 +10908,13 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>188.8856946302409</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>285.1031356539328</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -10923,7 +10923,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11136,31 +11136,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>234.4116509503166</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>202.5230052237944</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11300,7 +11300,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504502</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11376,10 +11376,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>62.91120742583783</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11394,7 +11394,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>169.2863157167183</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23467,16 +23467,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>79.43092547709072</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>48.84084321165233</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>33.08849621799496</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>185.2331835502357</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>16.84847214046786</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>86.27513419560061</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23938,7 +23938,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>132.9422777176668</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>131.3169157613383</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,7 +24139,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24190,7 +24190,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,19 +24364,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>130.9089884290392</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,16 +24421,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>175.9553136065865</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,10 +24613,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>50.18055922996665</v>
+        <v>166.4935684633777</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24652,19 +24652,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>163.3566071551165</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985774</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,19 +24838,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>106.7208623434385</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801211</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437419</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>216.9982595546226</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1.84741111297626e-13</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>828289.9634146204</v>
+        <v>828289.9634146205</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>828289.9634146203</v>
+        <v>828289.9634146204</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>828289.9634146205</v>
+        <v>828289.9634146206</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>828289.9634146204</v>
+        <v>828289.9634146205</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>828289.9634146204</v>
+        <v>828289.9634146203</v>
       </c>
     </row>
     <row r="11">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>574729.2389049986</v>
+      </c>
+      <c r="C2" t="n">
+        <v>574729.238904999</v>
+      </c>
+      <c r="D2" t="n">
         <v>574729.2389049989</v>
-      </c>
-      <c r="C2" t="n">
-        <v>574729.2389049986</v>
-      </c>
-      <c r="D2" t="n">
-        <v>574729.2389049988</v>
       </c>
       <c r="E2" t="n">
         <v>547440.6836327924</v>
       </c>
       <c r="F2" t="n">
+        <v>547440.6836327923</v>
+      </c>
+      <c r="G2" t="n">
         <v>547440.6836327924</v>
       </c>
-      <c r="G2" t="n">
-        <v>547440.6836327926</v>
-      </c>
       <c r="H2" t="n">
-        <v>547440.6836327927</v>
+        <v>547440.6836327928</v>
       </c>
       <c r="I2" t="n">
         <v>547440.6836327924</v>
       </c>
       <c r="J2" t="n">
-        <v>547440.6836327924</v>
+        <v>547440.6836327923</v>
       </c>
       <c r="K2" t="n">
         <v>569550.9922833785</v>
       </c>
       <c r="L2" t="n">
+        <v>574729.2389049978</v>
+      </c>
+      <c r="M2" t="n">
         <v>574729.2389049986</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>574729.2389049988</v>
+      </c>
+      <c r="O2" t="n">
         <v>574729.2389049983</v>
       </c>
-      <c r="N2" t="n">
-        <v>574729.2389049982</v>
-      </c>
-      <c r="O2" t="n">
-        <v>574729.2389049985</v>
-      </c>
       <c r="P2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049983</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284562</v>
+        <v>44162.60530284571</v>
       </c>
       <c r="L3" t="n">
         <v>10342.90680086687</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.015233837</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284564</v>
+        <v>44162.6053028457</v>
       </c>
     </row>
     <row r="4">
@@ -26418,40 +26418,40 @@
         <v>147917.0487159208</v>
       </c>
       <c r="C4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="D4" t="n">
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007441</v>
+        <v>7916.731656007427</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007456</v>
+        <v>7916.731656007455</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007461</v>
+        <v>7916.731656007429</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007456</v>
+        <v>7916.731656007454</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007503</v>
+        <v>7916.73165600748</v>
       </c>
       <c r="K4" t="n">
-        <v>26081.35417020402</v>
+        <v>26081.35417020399</v>
       </c>
       <c r="L4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732795</v>
       </c>
       <c r="M4" t="n">
         <v>30335.51889732797</v>
       </c>
       <c r="N4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732796</v>
       </c>
       <c r="O4" t="n">
         <v>30335.51889732797</v>
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871665</v>
@@ -26482,25 +26482,25 @@
         <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022281</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-246014.7670888758</v>
+        <v>-246014.7670888762</v>
       </c>
       <c r="C6" t="n">
-        <v>343953.1121256683</v>
+        <v>343953.1121256687</v>
       </c>
       <c r="D6" t="n">
-        <v>343953.1121256684</v>
+        <v>343953.1121256686</v>
       </c>
       <c r="E6" t="n">
-        <v>-77623.41044882791</v>
+        <v>-77720.86957479994</v>
       </c>
       <c r="F6" t="n">
-        <v>447536.6260280683</v>
+        <v>447439.166902096</v>
       </c>
       <c r="G6" t="n">
-        <v>447536.6260280685</v>
+        <v>447439.1669020961</v>
       </c>
       <c r="H6" t="n">
-        <v>447536.6260280686</v>
+        <v>447439.1669020965</v>
       </c>
       <c r="I6" t="n">
-        <v>447536.6260280684</v>
+        <v>447439.1669020961</v>
       </c>
       <c r="J6" t="n">
-        <v>271113.4068354754</v>
+        <v>271015.9477095032</v>
       </c>
       <c r="K6" t="n">
-        <v>402678.8242801061</v>
+        <v>402660.3305421717</v>
       </c>
       <c r="L6" t="n">
-        <v>436335.7073867785</v>
+        <v>436335.7073867777</v>
       </c>
       <c r="M6" t="n">
-        <v>311877.5989538078</v>
+        <v>311877.5989538083</v>
       </c>
       <c r="N6" t="n">
-        <v>446678.6141876449</v>
+        <v>446678.6141876454</v>
       </c>
       <c r="O6" t="n">
-        <v>446678.6141876452</v>
+        <v>446678.614187645</v>
       </c>
       <c r="P6" t="n">
-        <v>402516.0088847996</v>
+        <v>402516.0088847993</v>
       </c>
     </row>
   </sheetData>
@@ -26707,22 +26707,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>55.20325662855706</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
+        <v>68.13189012964061</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964068</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964064</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964067</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541004</v>
@@ -26750,34 +26750,34 @@
         <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="O3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="O3" t="n">
-        <v>830.3824054541003</v>
-      </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108358</v>
+        <v>12.92863350108359</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855712</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855713</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27391,7 +27391,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>23.03118778159228</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>28.23760368815991</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27436,13 +27436,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27552,13 +27552,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>73.24713279879977</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27594,13 +27594,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>117.0983005006855</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>23.75498498155895</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>42.48905394114843</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,13 +27774,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>219.0415139615567</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>28.31325977179779</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12.42908554841711</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27913,13 +27913,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>242.983339387809</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>18.93412030845968</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,25 +28053,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>272.0395466913659</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-2.108000729802126e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29752,7 +29752,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30043,7 +30043,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="41">
@@ -30520,7 +30520,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="44">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31516,46 +31516,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31692,28 +31692,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32227,7 +32227,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,31 +32236,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32309,31 +32309,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,7 +32400,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32412,19 +32412,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,7 +32464,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,31 +32473,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32546,31 +32546,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,7 +32637,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32783,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32938,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,31 +32947,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33020,31 +33020,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,7 +33111,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,7 +33175,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,31 +33184,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33257,31 +33257,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,7 +33348,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,10 +33585,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279164</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624591</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307148</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,10 +35331,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>41.91017895490671</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>616.5391140644617</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507416</v>
+        <v>106.7510064679868</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35726,10 +35726,10 @@
         <v>41.91017895490671</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594836</v>
+        <v>397.3927609030883</v>
       </c>
       <c r="M15" t="n">
         <v>776.1294408004662</v>
@@ -35744,10 +35744,10 @@
         <v>207.0934149315248</v>
       </c>
       <c r="Q15" t="n">
-        <v>140.5103663981263</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35887,25 +35887,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,13 +35963,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>702.5357390731093</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980129</v>
@@ -35978,10 +35978,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q18" t="n">
-        <v>120.7944393485983</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,19 +36039,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36124,25 +36124,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109065</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>265.0957540022524</v>
       </c>
       <c r="M21" t="n">
-        <v>618.5494866776696</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,25 +36361,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>509.9122281478579</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>395.9791095617642</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303314</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>522.1296519817043</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>385.6919070110652</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556547</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,25 +36835,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>725.3059354206563</v>
+        <v>630.5822970683469</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412259</v>
+        <v>67.7110267941226</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584676</v>
@@ -37005,10 +37005,10 @@
         <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403578</v>
+        <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043182</v>
+        <v>94.42895660043183</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303314</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>553.4241514440714</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>304.4077228477634</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520616</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,13 +37236,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37312,7 +37312,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>754.9133157366322</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>590.488811868312</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,7 +37473,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
         <v>150.5754385879392</v>
@@ -37628,22 +37628,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>499.3100716807072</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>618.2977090519457</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>384.9870895382559</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>484.8867074649025</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>213.4866460137771</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>257.2993485017925</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38187,10 +38187,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
